--- a/WGRDBESstockCoord/format/RCEF/CEF_v17.xlsx
+++ b/WGRDBESstockCoord/format/RCEF/CEF_v17.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\Rstudio\D1SCI\VISBIO\RDBESstockCoord\WGRDBESstockCoord\format\RCEF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/kibi_dtu_dk/Documents/RDBES_gits/RDBESstockCoord/WGRDBESstockCoord/format/RCEF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E27740-2F80-44E2-A6E8-D6A76EECD151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="143" documentId="13_ncr:1_{F9E27740-2F80-44E2-A6E8-D6A76EECD151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD4257D3-09B8-469A-B688-E40C85B80ECF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{C3BA46FC-17EC-4006-828F-4F15940585FB}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{C3BA46FC-17EC-4006-828F-4F15940585FB}"/>
   </bookViews>
   <sheets>
     <sheet name="CEF" sheetId="1" r:id="rId1"/>
     <sheet name="Catch" sheetId="6" r:id="rId2"/>
-    <sheet name="Age Length Width  Distribution" sheetId="10" r:id="rId3"/>
-    <sheet name="Spatial landings details" sheetId="8" r:id="rId4"/>
-    <sheet name="Effort" sheetId="9" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId3"/>
+    <sheet name="Distribution" sheetId="10" r:id="rId4"/>
+    <sheet name="Spatial landings details" sheetId="8" r:id="rId5"/>
+    <sheet name="Effort" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,8 +40,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={C24C4011-38BE-4FFB-A3D7-65F772CCF5D7}</author>
+  </authors>
+  <commentList>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{C24C4011-38BE-4FFB-A3D7-65F772CCF5D7}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    @ICES to add short links to code lists</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="198">
   <si>
     <t>vesselFlagCountry</t>
   </si>
@@ -331,9 +350,6 @@
     <t>Fleet can differ between WG's, e.g., WGBFAS (active/passive) and WGMIXFISH (derivative of metier6), so by including WG it would be possible for the format to hold data for the same stock, but with different fleets. This may not be super relevant for the census cathes, where there is a stock, but it would be very relevant for the effort table where a lot of WG's can cover a certain area and therefore have multiple fleet definitions.</t>
   </si>
   <si>
-    <t>Fleet can differ between WG's, e.g., WGBFAS (active/passive) and WGMIXFISH (derivative of metier6), so by including WG it would be possible for the format to hold data for the same stock, but with different fleets. This may not be super relevant for the census catches, where there is a stock, but it would be very relevant for the effort table where a lot of WG's can cover a certain area and therefore have multiple fleet definitions.</t>
-  </si>
-  <si>
     <t>Guidance on how to fill this in for landings and BMS. Only NA if domainCatch is not NA.</t>
   </si>
   <si>
@@ -1083,12 +1099,6 @@
     </r>
   </si>
   <si>
-    <t>Rule</t>
-  </si>
-  <si>
-    <t>FleetType!A1</t>
-  </si>
-  <si>
     <t>For landings it should always be WGfleet</t>
   </si>
   <si>
@@ -1098,31 +1108,12 @@
     <t>IC_FleetName, GearType, Metier5_FishingActivity &amp; Metier6_FishingActivity</t>
   </si>
   <si>
-    <t>If fleetType = 'WGfleet' then code should be in IC_FleetName. 
-If fleetType = 'WGFleetList' then codes should be in IC_FleetName.
-If fleetType = 'metier6' then code should be in Metier6_FishingActivity.
-If fleetType = 'metier6List' then codes should be in Metier6_FishingActivity.
-if fleetType = 'metier5' then code sould be in Metier5_FishingActivity.
-if fleetType = 'metier5List' then codes sould be in Metier5_FishingActivity.
-if fleetType = 'metier4' then code sould be in GearType.
-if fleetType = 'metier4List' then codes sould be in GearType.</t>
-  </si>
-  <si>
     <t>M/O</t>
   </si>
   <si>
     <t>Mandatory for catchCategory = 'Lan'. Optional for catchCategory != 'Lan'</t>
   </si>
   <si>
-    <t>ices_StockCode</t>
-  </si>
-  <si>
-    <t>ICESArea</t>
-  </si>
-  <si>
-    <t>Quater &amp; Month &amp; Year</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Same definition as in RDBES CL. The estimated scientific live weight in kg. Scientific weight is equal to reporting category 'A' in InterCatch, so it includes both reported, non-reported and misreported. </t>
     </r>
@@ -1149,24 +1140,26 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TimeUnit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Quarter, Month, </t>
+    <t>distributionType</t>
+  </si>
+  <si>
+    <t>distributionUnit</t>
+  </si>
+  <si>
+    <t>distributionValue</t>
+  </si>
+  <si>
+    <t>If discard is provided there should be row with landings - this is a weak check</t>
+  </si>
+  <si>
+    <t>If domainCatchBMS is not NA for catchCategory = 'BMS' &amp; 'DisBMS' then there should be a simliar on for catchCategory = 'Lan'</t>
+  </si>
+  <si>
+    <t>If domainCatchDis is not NA for catchCategory = 'Dis' &amp; 'DisBMS' then there should be a simliar on for catchCategory = 'Lan'</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MUNIT (t, kg, </t>
     </r>
     <r>
       <rPr>
@@ -1176,74 +1169,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Year) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>| IC_SeasonType</t>
-    </r>
-  </si>
-  <si>
-    <t>distributionType</t>
-  </si>
-  <si>
-    <t>distributionUnit</t>
-  </si>
-  <si>
-    <t>distributionValue</t>
-  </si>
-  <si>
-    <t>If discard is provided there should be row with landings - this is a weak check</t>
-  </si>
-  <si>
-    <t>If domainCatchBMS is not NA for catchCategory = 'BMS' &amp; 'DisBMS' then there should be a simliar on for catchCategory = 'Lan'</t>
-  </si>
-  <si>
-    <t>If domainCatchDis is not NA for catchCategory = 'Dis' &amp; 'DisBMS' then there should be a simliar on for catchCategory = 'Lan'</t>
-  </si>
-  <si>
-    <t>if variableType %in% ("WGWeight", "OfficialWeight") then variableUnit should equal c("t", "kg")
-if variableType %in% ("WGNumber", "OfficialNumber") then variableUnit should equal c("pcs.", "1000_pcs.")</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">MUNIT (t, kg, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>pcs., 1000_pcs.)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">MUNIT (t, kg, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>pcs., 1000_pcc.)</t>
     </r>
-  </si>
-  <si>
-    <t>If seasonType = 'Month' then code should be in Month
-if seasonType = 'Quarter' then code should be in Quarter
-if seasonType = 'Year' then code should be in Year</t>
   </si>
   <si>
     <t>PSU</t>
@@ -1357,79 +1284,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>AreaType</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (ICESArea,</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ICESAreaList</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>StockArea</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
         <color rgb="FF7030A0"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
@@ -1534,14 +1388,126 @@
     </r>
   </si>
   <si>
-    <t>WGFleet codes are defined by the AWG groups</t>
+    <t>recordType</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>Fixed value CN</t>
+  </si>
+  <si>
+    <t>FK</t>
+  </si>
+  <si>
+    <t>PK/FK</t>
+  </si>
+  <si>
+    <t>Unique combination of fields</t>
+  </si>
+  <si>
+    <t>ISO_3166 
+//vocab.ices.dk/?ref=337</t>
+  </si>
+  <si>
+    <t>ISO 3166 alpha-2 codes, but also e.g. GB-SCT. The flag country of the vessel.</t>
+  </si>
+  <si>
+    <t>Year 
+//vocab.ices.dk/?ref=362</t>
+  </si>
+  <si>
+    <t>ExpertGroups
+https://vocab.ices.dk/?codetypeguid=17a861e9-5c71-4cea-8d6e-77e47a89084c</t>
+  </si>
+  <si>
+    <t>SpecWoRMS
+//vocab.ices.dk/?ref=365</t>
+  </si>
+  <si>
+    <t>CatchCategory 
+//vocab.ices.dk/?ref=1610</t>
+  </si>
+  <si>
+    <t>ices_StockCode
+https://vocab.ices.dk/?codetypeguid=6687d747-ec08-49a0-b13f-f202779c907c</t>
+  </si>
+  <si>
+    <t>TimeUnit 
+https://vocab.ices.dk/?codetypeguid=e04d0adc-356d-4e62-ac6f-dcac3cc84561</t>
+  </si>
+  <si>
+    <t>AreaType
+https://vocab.ices.dk/?codetypeguid=af34f8a3-62f9-411f-9171-00b278cb866e</t>
+  </si>
+  <si>
+    <t>ICESArea
+//vocab.ices.dk/?ref=358</t>
+  </si>
+  <si>
+    <t>Fisheries management unit codes can be used for further refine the spatial component. Example, this can be use to individualise catches and samples of e.g. redfish stocks below and above 500 m depth, Norwegian costal cod 12 mile from coastline, Nephrops where it cannot be defined by the statistical rectangle.</t>
+  </si>
+  <si>
+    <t>Issues</t>
+  </si>
+  <si>
+    <t>Year is missing in code list</t>
+  </si>
+  <si>
+    <t>Quater
+//vocab.ices.dk/?ref=1645
+Month
+//vocab.ices.dk/?ref=1646
+Year
+//vocab.ices.dk/?ref=362</t>
+  </si>
+  <si>
+    <t>Checks</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>The year is determined by the landing date. The defintion follows the definition in RDBES CL</t>
+  </si>
+  <si>
+    <t>Metier6_FishingActivity
+//vocab.ices.dk/?ref=1647</t>
+  </si>
+  <si>
+    <t>Rewrite .... Fleet can differ between WG's, e.g., WGBFAS (active/passive) and WGMIXFISH (derivative of metier6), so by including WG it would be possible for the format to hold data for the same stock, but with different fleets. This may not be super relevant for the catches, where there is a stock, but it would be very relevant for the effort table where a lot of WG's can cover a certain area and therefore have multiple fleet definitions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The AphiaID, which is a 6 digit code, is used for the species in the species field. The AphiaIDs are maintained by WoRMS. Only species AphiaIDs with status “Accepted” or “Alternate Representation” are allowed.
+</t>
+  </si>
+  <si>
+    <t>Elaborate on why this is needed when we have the stock .....</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BMS, Dis, DisBMS, Lan are accepted codes. </t>
+  </si>
+  <si>
+    <t>Code list for WGFleet</t>
+  </si>
+  <si>
+    <t>WGFleet codes are defined by the AWG groups. Wgfleet can be a Metier5, Metier4 or a groupin accepted by the WG</t>
+  </si>
+  <si>
+    <t>MUNIT (t, kg, N, NE3)</t>
+  </si>
+  <si>
+    <t>N, NE3?</t>
+  </si>
+  <si>
+    <t>Code list missing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1638,14 +1604,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <strike/>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
@@ -1667,8 +1625,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1684,6 +1655,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1716,7 +1693,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1788,12 +1765,6 @@
     <xf numFmtId="16" fontId="3" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1815,14 +1786,52 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1839,6 +1848,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Kirsten Birch Håkansson" id="{DB739E79-EA8F-4A68-9068-88177F99F462}" userId="S::kibi@dtu.dk::b2eb0f2d-614f-4d37-ac27-4f1e9942fa6b" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2156,6 +2171,14 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="G1" dT="2026-01-22T21:39:03.15" personId="{DB739E79-EA8F-4A68-9068-88177F99F462}" id="{C24C4011-38BE-4FFB-A3D7-65F772CCF5D7}">
+    <text>@ICES to add short links to code lists</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
@@ -2163,26 +2186,26 @@
   </sheetPr>
   <dimension ref="A1:L82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+    <sheetView zoomScale="75" workbookViewId="0">
       <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" customWidth="1"/>
-    <col min="7" max="7" width="5.5703125" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
-    <col min="9" max="9" width="29.5703125" customWidth="1"/>
-    <col min="12" max="12" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.44140625" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" customWidth="1"/>
+    <col min="7" max="7" width="5.5546875" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" customWidth="1"/>
+    <col min="9" max="9" width="29.5546875" customWidth="1"/>
+    <col min="12" max="12" width="27.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -2191,14 +2214,14 @@
       </c>
       <c r="E2" s="16"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="E3" s="16"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>66</v>
@@ -2211,26 +2234,26 @@
       </c>
       <c r="L5" s="18"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>0</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" t="s">
         <v>0</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="39" t="s">
+      <c r="F6" t="s">
         <v>0</v>
       </c>
       <c r="G6" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="39" t="s">
+      <c r="I6" t="s">
         <v>0</v>
       </c>
       <c r="J6" t="s">
@@ -2238,26 +2261,26 @@
       </c>
       <c r="L6" s="18"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>1</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" t="s">
         <v>1</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="39" t="s">
+      <c r="F7" t="s">
         <v>1</v>
       </c>
       <c r="G7" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="39" t="s">
+      <c r="I7" t="s">
         <v>1</v>
       </c>
       <c r="J7" t="s">
@@ -2265,26 +2288,26 @@
       </c>
       <c r="L7" s="18"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>34</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" t="s">
         <v>34</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="39" t="s">
+      <c r="F8" t="s">
         <v>34</v>
       </c>
       <c r="G8" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="39" t="s">
+      <c r="I8" t="s">
         <v>34</v>
       </c>
       <c r="J8" t="s">
@@ -2292,134 +2315,134 @@
       </c>
       <c r="L8" s="18"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="39" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>16</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" t="s">
         <v>16</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="39" t="s">
+      <c r="F9" t="s">
         <v>16</v>
       </c>
       <c r="G9" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="39" t="s">
+      <c r="I9" t="s">
+        <v>88</v>
+      </c>
+      <c r="J9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="18"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" t="s">
         <v>89</v>
       </c>
-      <c r="J9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" s="18"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="39" t="s">
+      <c r="J10" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="18"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" t="s">
         <v>90</v>
       </c>
-      <c r="J10" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="18"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" s="39" t="s">
+      <c r="J11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="18"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" t="s">
         <v>91</v>
       </c>
-      <c r="J11" t="s">
-        <v>12</v>
-      </c>
-      <c r="L11" s="18"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="39" t="s">
+      <c r="J12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="18"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>89</v>
       </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="J12" t="s">
-        <v>12</v>
-      </c>
-      <c r="L12" s="18"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="39" t="s">
-        <v>90</v>
-      </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="39" t="s">
-        <v>149</v>
+      <c r="C13" t="s">
+        <v>141</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="39" t="s">
-        <v>90</v>
+      <c r="F13" t="s">
+        <v>89</v>
       </c>
       <c r="G13" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="39" t="s">
+      <c r="I13" t="s">
         <v>39</v>
       </c>
       <c r="J13" t="s">
@@ -2427,26 +2450,26 @@
       </c>
       <c r="L13" s="18"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="39" t="s">
-        <v>91</v>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>90</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="39" t="s">
-        <v>150</v>
+      <c r="C14" t="s">
+        <v>142</v>
       </c>
       <c r="D14" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="39" t="s">
-        <v>91</v>
+      <c r="F14" t="s">
+        <v>90</v>
       </c>
       <c r="G14" t="s">
         <v>12</v>
       </c>
-      <c r="I14" s="39" t="s">
+      <c r="I14" t="s">
         <v>4</v>
       </c>
       <c r="J14" t="s">
@@ -2454,264 +2477,264 @@
       </c>
       <c r="L14" s="18"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="39" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
+        <v>91</v>
+      </c>
+      <c r="G15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" t="s">
         <v>92</v>
       </c>
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="39" t="s">
-        <v>151</v>
-      </c>
-      <c r="D15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" s="39" t="s">
-        <v>93</v>
-      </c>
       <c r="J15" t="s">
         <v>12</v>
       </c>
       <c r="L15" s="18"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="39" t="s">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>39</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="39" t="s">
+      <c r="C16" t="s">
         <v>79</v>
       </c>
       <c r="D16" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="39" t="s">
+      <c r="F16" t="s">
         <v>39</v>
       </c>
       <c r="G16" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="39" t="s">
-        <v>104</v>
+      <c r="I16" t="s">
+        <v>103</v>
       </c>
       <c r="J16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="39" t="s">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>142</v>
-      </c>
-      <c r="C17" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" t="s">
+        <v>156</v>
+      </c>
+      <c r="J17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s">
         <v>109</v>
       </c>
-      <c r="F17" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
-      <c r="I17" s="39" t="s">
-        <v>167</v>
-      </c>
-      <c r="J17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="B18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="39" t="s">
-        <v>110</v>
-      </c>
-      <c r="F18" s="39" t="s">
+      <c r="F18" t="s">
         <v>37</v>
       </c>
-      <c r="G18" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="I18" s="39" t="s">
+      <c r="G18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" t="s">
         <v>5</v>
       </c>
       <c r="J18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="39" t="s">
-        <v>104</v>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>103</v>
       </c>
       <c r="B19" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="39" t="s">
+      <c r="C19" t="s">
         <v>5</v>
       </c>
       <c r="D19" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="39" t="s">
+      <c r="F19" t="s">
         <v>4</v>
       </c>
       <c r="G19" t="s">
         <v>13</v>
       </c>
-      <c r="I19" s="39" t="s">
+      <c r="I19" t="s">
         <v>6</v>
       </c>
-      <c r="J19" s="39" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="39" t="s">
+      <c r="J19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>142</v>
-      </c>
-      <c r="C20" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="F20" s="39" t="s">
-        <v>93</v>
+        <v>138</v>
+      </c>
+      <c r="C20" t="s">
+        <v>110</v>
+      </c>
+      <c r="F20" t="s">
+        <v>92</v>
       </c>
       <c r="G20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="39" t="s">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>142</v>
-      </c>
-      <c r="C21" s="39" t="s">
-        <v>95</v>
+        <v>138</v>
+      </c>
+      <c r="C21" t="s">
+        <v>94</v>
       </c>
       <c r="D21" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="39" t="s">
+      <c r="F21" t="s">
+        <v>103</v>
+      </c>
+      <c r="G21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" t="s">
+        <v>138</v>
+      </c>
+      <c r="C22" t="s">
         <v>104</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" t="s">
-        <v>142</v>
-      </c>
-      <c r="C22" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="F22" s="39" t="s">
-        <v>167</v>
+      <c r="F22" t="s">
+        <v>156</v>
       </c>
       <c r="G22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="39" t="s">
-        <v>167</v>
-      </c>
-      <c r="C23" s="39" t="s">
-        <v>94</v>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>156</v>
+      </c>
+      <c r="C23" t="s">
+        <v>93</v>
       </c>
       <c r="D23" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="39" t="s">
+      <c r="F23" t="s">
         <v>5</v>
       </c>
       <c r="G23" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="39" t="s">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>5</v>
       </c>
       <c r="B24" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="39" t="s">
-        <v>159</v>
+      <c r="C24" t="s">
+        <v>148</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="39" t="s">
-        <v>111</v>
+      <c r="F24" t="s">
+        <v>110</v>
       </c>
       <c r="G24" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B25" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="39" t="s">
+      <c r="C25" t="s">
         <v>7</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="39" t="s">
+      <c r="F25" t="s">
         <v>6</v>
       </c>
-      <c r="G25" s="39" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
         <v>6</v>
       </c>
       <c r="B26" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="39" t="s">
-        <v>86</v>
+      <c r="C26" t="s">
+        <v>85</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B27" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="39" t="s">
+      <c r="C27" t="s">
         <v>10</v>
       </c>
       <c r="D27" t="s">
@@ -2720,35 +2743,35 @@
       <c r="E27" s="1"/>
       <c r="H27" s="12"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="B28" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E28" s="18"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="39" t="s">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E29" s="18"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="39" t="s">
-        <v>86</v>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>85</v>
       </c>
       <c r="B30" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E30" s="18"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="39" t="s">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>8</v>
       </c>
       <c r="B31" s="18" t="s">
@@ -2756,86 +2779,86 @@
       </c>
       <c r="E31" s="18"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B32" s="18"/>
       <c r="E32" s="18"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="18"/>
       <c r="E33" s="18"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="H35" s="18"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="H36" s="12"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="H37" s="12"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="H38" s="12"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="H39" s="12"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="H40" s="12"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="H41" s="12"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="H42" s="12"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="H43" s="12"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="H44" s="12"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="H45" s="12"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="H46" s="12"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="H47" s="12"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="H48" s="12"/>
       <c r="I48" s="18"/>
     </row>
-    <row r="49" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H49" s="12"/>
     </row>
-    <row r="50" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H50" s="12"/>
       <c r="I50" s="19"/>
     </row>
-    <row r="51" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H51" s="12"/>
     </row>
-    <row r="52" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H52" s="12"/>
     </row>
-    <row r="53" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H53" s="12"/>
     </row>
-    <row r="78" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G78" s="12"/>
     </row>
-    <row r="79" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G79" s="12"/>
     </row>
-    <row r="80" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G80" s="18"/>
     </row>
-    <row r="81" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G81" s="18"/>
     </row>
-    <row r="82" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G82" s="18"/>
     </row>
   </sheetData>
@@ -2844,697 +2867,756 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12:D27"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+      <extLst>
+        <ext xmlns:xlsdti="http://schemas.microsoft.com/office/spreadsheetml/2023/showDataTypeIcons" uri="{77bfe23e-c014-4d31-8a63-9c772dbf06b6}">
+          <xlsdti:showDataTypeIcons visible="0"/>
+        </ext>
+      </extLst>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.85546875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="28.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="77.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="77.140625" style="7" customWidth="1"/>
-    <col min="10" max="10" width="104.42578125" style="7" customWidth="1"/>
-    <col min="11" max="11" width="38.28515625" style="6" customWidth="1"/>
-    <col min="12" max="16384" width="8.85546875" style="6"/>
+    <col min="1" max="1" width="8.88671875" style="6"/>
+    <col min="2" max="2" width="15.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.88671875" style="7" customWidth="1"/>
+    <col min="8" max="8" width="28.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="77.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="77.109375" style="7" customWidth="1"/>
+    <col min="12" max="12" width="104.44140625" style="7" customWidth="1"/>
+    <col min="13" max="13" width="38.33203125" style="6" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="10" t="s">
+      <c r="G1" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="J1" s="10"/>
+      <c r="K1" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B2" s="36"/>
+      <c r="C2" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K2" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="L2" s="37"/>
+    </row>
+    <row r="3" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="39" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="40" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B11" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="44" t="s">
+        <v>179</v>
+      </c>
+      <c r="I11" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="J1" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="L11" s="43"/>
+    </row>
+    <row r="12" spans="1:12" s="40" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B12" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="C12" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="E12" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="44" t="s">
+        <v>180</v>
+      </c>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+    </row>
+    <row r="13" spans="1:12" s="40" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="C13" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+    </row>
+    <row r="14" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+    </row>
+    <row r="17" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="C17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B20" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="43.2" x14ac:dyDescent="0.2">
+      <c r="B21" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="H21" s="35"/>
+      <c r="I21" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C22" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" s="48" t="s">
+        <v>195</v>
+      </c>
+      <c r="H22" s="49" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="E23" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C24" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C25" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="E25" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C27" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C28" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="H11" s="17"/>
-    </row>
-    <row r="12" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="6" t="s">
+      <c r="E28" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="G14" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="B16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="45" x14ac:dyDescent="0.15">
-      <c r="A20" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" s="30" t="s">
-        <v>168</v>
-      </c>
-      <c r="G20" s="38"/>
-      <c r="H20" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="B21" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="B24" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B27" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" s="6" t="s">
+      <c r="F28" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="H27" s="7" t="s">
+      <c r="I28" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G31" s="24"/>
+    <row r="32" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B32" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H32" s="24"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="G5" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="G14" location="FleetType!A1" display="FleetType!A1" xr:uid="{724B27C4-3AFB-46B3-A81D-F7D063681592}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCC151CB-CABA-4154-8BFA-D26435CA4B38}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:I25"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D12" sqref="D12:D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="4.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="4.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26" style="3" customWidth="1"/>
-    <col min="6" max="6" width="38.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.88671875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="62" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="71.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.85546875" style="2"/>
+    <col min="9" max="9" width="71.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="116.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>66</v>
       </c>
@@ -3543,13 +3625,13 @@
       <c r="D2" s="6"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>40</v>
       </c>
@@ -3578,7 +3660,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>33</v>
       </c>
@@ -3605,7 +3687,7 @@
       </c>
       <c r="I4" s="7"/>
     </row>
-    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>33</v>
       </c>
@@ -3632,7 +3714,7 @@
       </c>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>33</v>
       </c>
@@ -3657,7 +3739,7 @@
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
     </row>
-    <row r="7" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>33</v>
       </c>
@@ -3682,7 +3764,7 @@
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
     </row>
-    <row r="8" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>33</v>
       </c>
@@ -3709,7 +3791,7 @@
       </c>
       <c r="I8" s="7"/>
     </row>
-    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>33</v>
       </c>
@@ -3726,7 +3808,7 @@
         <v>23</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>49</v>
@@ -3734,7 +3816,7 @@
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="4" t="s">
         <v>50</v>
@@ -3753,10 +3835,10 @@
       </c>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6" t="s">
@@ -3766,20 +3848,20 @@
         <v>23</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="4" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6" t="s">
@@ -3789,20 +3871,20 @@
         <v>23</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="4" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>28</v>
@@ -3814,11 +3896,11 @@
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="4" t="s">
         <v>79</v>
@@ -3833,43 +3915,43 @@
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" s="14" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="31" t="s">
-        <v>129</v>
+      <c r="F15" s="29" t="s">
+        <v>128</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="7"/>
-      <c r="F16" s="32"/>
+      <c r="F16" s="30"/>
       <c r="G16" s="6"/>
       <c r="H16" s="7"/>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="4" t="s">
         <v>5</v>
@@ -3881,36 +3963,36 @@
       <c r="E17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="33" t="s">
-        <v>135</v>
+      <c r="F17" s="31" t="s">
+        <v>134</v>
       </c>
       <c r="G17" s="23"/>
-      <c r="H17" s="31" t="s">
-        <v>120</v>
+      <c r="H17" s="29" t="s">
+        <v>119</v>
       </c>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
       <c r="B18" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="31" t="s">
-        <v>157</v>
+      <c r="F18" s="29" t="s">
+        <v>147</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>74</v>
@@ -3921,19 +4003,19 @@
       <c r="E19" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="30" t="s">
-        <v>97</v>
+      <c r="F19" s="28" t="s">
+        <v>96</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -3943,10 +4025,10 @@
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>74</v>
@@ -3958,14 +4040,14 @@
       <c r="F21" s="7"/>
       <c r="G21" s="6"/>
       <c r="H21" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="4" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6" t="s">
@@ -3974,14 +4056,14 @@
       <c r="E22" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F22" s="30" t="s">
-        <v>114</v>
+      <c r="F22" s="28" t="s">
+        <v>113</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="4" t="s">
         <v>7</v>
@@ -4000,10 +4082,10 @@
       </c>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
       <c r="B24" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>28</v>
@@ -4015,11 +4097,11 @@
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="6"/>
       <c r="B25" s="4" t="s">
         <v>10</v>
@@ -4037,7 +4119,7 @@
         <v>76</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -4049,7 +4131,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I26"/>
   <sheetViews>
@@ -4057,36 +4139,36 @@
       <selection activeCell="B7" sqref="B7:B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="11"/>
-    <col min="2" max="2" width="28.7109375" style="11" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="11"/>
+    <col min="2" max="2" width="28.6640625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="11" customWidth="1"/>
     <col min="4" max="4" width="11" style="11" customWidth="1"/>
     <col min="5" max="5" width="14" style="11" customWidth="1"/>
     <col min="6" max="6" width="35" style="11" customWidth="1"/>
-    <col min="7" max="7" width="23.42578125" style="11" customWidth="1"/>
-    <col min="8" max="8" width="67.7109375" style="11" customWidth="1"/>
-    <col min="9" max="9" width="66.7109375" style="11" customWidth="1"/>
-    <col min="10" max="16384" width="8.85546875" style="11"/>
+    <col min="7" max="7" width="23.44140625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="67.6640625" style="11" customWidth="1"/>
+    <col min="9" max="9" width="66.6640625" style="11" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>38</v>
       </c>
@@ -4099,20 +4181,20 @@
       <c r="H4" s="7"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="130.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="7"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>40</v>
       </c>
@@ -4141,7 +4223,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>33</v>
       </c>
@@ -4168,7 +4250,7 @@
       </c>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>33</v>
       </c>
@@ -4195,7 +4277,7 @@
       </c>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>33</v>
       </c>
@@ -4222,7 +4304,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>33</v>
       </c>
@@ -4247,7 +4329,7 @@
       <c r="H10" s="7"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>33</v>
       </c>
@@ -4274,7 +4356,7 @@
       </c>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>33</v>
       </c>
@@ -4291,7 +4373,7 @@
         <v>23</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>49</v>
@@ -4301,12 +4383,12 @@
       </c>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>43</v>
@@ -4318,18 +4400,18 @@
         <v>23</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="7"/>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>28</v>
@@ -4341,16 +4423,16 @@
         <v>23</v>
       </c>
       <c r="F14" s="26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="7"/>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>43</v>
@@ -4362,20 +4444,20 @@
         <v>23</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>43</v>
@@ -4386,14 +4468,14 @@
       <c r="E16" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="34" t="s">
-        <v>132</v>
+      <c r="F16" s="32" t="s">
+        <v>131</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="7"/>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>33</v>
       </c>
@@ -4409,7 +4491,7 @@
       <c r="E17" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="35" t="s">
+      <c r="F17" s="33" t="s">
         <v>32</v>
       </c>
       <c r="G17" s="7" t="s">
@@ -4420,7 +4502,7 @@
       </c>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>33</v>
       </c>
@@ -4437,7 +4519,7 @@
         <v>23</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>71</v>
@@ -4447,7 +4529,7 @@
       </c>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>33</v>
       </c>
@@ -4463,7 +4545,7 @@
       <c r="E19" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="35" t="s">
+      <c r="F19" s="33" t="s">
         <v>72</v>
       </c>
       <c r="G19" s="7" t="s">
@@ -4474,7 +4556,7 @@
       </c>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>33</v>
       </c>
@@ -4490,7 +4572,7 @@
       <c r="E20" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="35" t="s">
+      <c r="F20" s="33" t="s">
         <v>55</v>
       </c>
       <c r="G20" s="6" t="s">
@@ -4501,12 +4583,12 @@
       </c>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>43</v>
@@ -4517,21 +4599,21 @@
       <c r="E21" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="30" t="s">
-        <v>112</v>
+      <c r="F21" s="28" t="s">
+        <v>111</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>43</v>
@@ -4542,30 +4624,30 @@
       <c r="E22" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F22" s="29" t="s">
+      <c r="F22" s="27" t="s">
         <v>57</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="F23" s="29" t="s">
-        <v>165</v>
+        <v>156</v>
+      </c>
+      <c r="F23" s="27" t="s">
+        <v>154</v>
       </c>
       <c r="G23" s="5"/>
       <c r="H23" s="17"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
       <c r="B24" s="4" t="s">
         <v>5</v>
@@ -4577,8 +4659,8 @@
       <c r="E24" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F24" s="30" t="s">
-        <v>168</v>
+      <c r="F24" s="28" t="s">
+        <v>157</v>
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="6" t="s">
@@ -4586,21 +4668,21 @@
       </c>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
-      <c r="F25" s="31" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F25" s="29" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B26" s="4" t="s">
         <v>6</v>
       </c>
@@ -4618,7 +4700,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I16"/>
   <sheetViews>
@@ -4626,31 +4708,31 @@
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" style="11" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="60.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" style="11" customWidth="1"/>
+    <col min="6" max="6" width="27.88671875" style="11" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="60.6640625" style="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="69" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.85546875" style="11"/>
+    <col min="10" max="16384" width="8.88671875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="6" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="6" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>11</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
     </row>
-    <row r="2" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>40</v>
       </c>
@@ -4679,7 +4761,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="6" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>33</v>
       </c>
@@ -4706,7 +4788,7 @@
       </c>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="1:9" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>33</v>
       </c>
@@ -4733,7 +4815,7 @@
       </c>
       <c r="I4" s="7"/>
     </row>
-    <row r="5" spans="1:9" s="6" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="6" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>33</v>
       </c>
@@ -4760,12 +4842,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>43</v>
@@ -4777,17 +4859,17 @@
         <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
     </row>
-    <row r="7" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>28</v>
@@ -4799,17 +4881,17 @@
         <v>23</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
     </row>
-    <row r="8" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>43</v>
@@ -4821,19 +4903,19 @@
         <v>23</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I8" s="7"/>
     </row>
-    <row r="9" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>43</v>
@@ -4844,13 +4926,13 @@
       <c r="E9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="34" t="s">
-        <v>132</v>
+      <c r="F9" s="32" t="s">
+        <v>131</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="1:9" s="6" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" s="6" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>33</v>
       </c>
@@ -4866,7 +4948,7 @@
       <c r="E10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="35" t="s">
+      <c r="F10" s="33" t="s">
         <v>32</v>
       </c>
       <c r="G10" s="7" t="s">
@@ -4877,7 +4959,7 @@
       </c>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>33</v>
       </c>
@@ -4893,7 +4975,7 @@
       <c r="E11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="35" t="s">
+      <c r="F11" s="33" t="s">
         <v>55</v>
       </c>
       <c r="G11" s="6" t="s">
@@ -4904,27 +4986,27 @@
       </c>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" s="6" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="F12" s="30" t="s">
-        <v>112</v>
+        <v>92</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>111</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>43</v>
@@ -4935,30 +5017,30 @@
       <c r="E13" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="29" t="s">
+      <c r="F13" s="27" t="s">
         <v>57</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="F14" s="29" t="s">
-        <v>165</v>
+        <v>156</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>154</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="17"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" s="6" customFormat="1" ht="166.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" s="6" customFormat="1" ht="166.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>33</v>
       </c>
@@ -4975,17 +5057,17 @@
         <v>23</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
         <v>6</v>
       </c>
@@ -5008,15 +5090,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <TaxKeywordTaxHTField xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <TaxCatchAllLabel xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5197,20 +5276,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <TaxKeywordTaxHTField xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <TaxCatchAllLabel xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CEB43D0-560F-48CD-B064-47F998E79E6D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F724DB8-FDC9-4526-B07B-463F4D815618}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5235,9 +5315,11 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F724DB8-FDC9-4526-B07B-463F4D815618}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CEB43D0-560F-48CD-B064-47F998E79E6D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>